--- a/ABC.xlsx
+++ b/ABC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Apple/Myscripts/Javascript/googleT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E83A0D87-5DD6-3349-AE4C-B1922EDC058A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70B6437-4568-3A40-846E-C23BA2DD4E8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" activeTab="1" xr2:uid="{F74C42E9-1F1A-0B43-999F-3BC844D73864}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{F74C42E9-1F1A-0B43-999F-3BC844D73864}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,87 +31,125 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+  <si>
+    <t>Error Table</t>
+  </si>
+  <si>
+    <t>Problem ID</t>
+  </si>
+  <si>
+    <t>Tutelage ID</t>
+  </si>
+  <si>
+    <t>Possible Answers</t>
+  </si>
+  <si>
+    <t>Feedback Name</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>FD3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>TU</t>
+  </si>
+  <si>
+    <t>$A*B$</t>
+  </si>
+  <si>
+    <t>$A+B$</t>
+  </si>
+  <si>
+    <t>$A-B$</t>
+  </si>
+  <si>
+    <t>$A+B+B$</t>
+  </si>
+  <si>
+    <t>Tutelage Variables</t>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>FIB</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>A2</t>
+    <t>FB1</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>B3</t>
+    <t>FB2</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>A1S2</t>
-  </si>
-  <si>
-    <t>B1S2</t>
-  </si>
-  <si>
-    <t>C1S2</t>
-  </si>
-  <si>
-    <t>D1S2</t>
-  </si>
-  <si>
-    <t>A2S2</t>
-  </si>
-  <si>
-    <t>B2S2</t>
-  </si>
-  <si>
-    <t>C2S2</t>
-  </si>
-  <si>
-    <t>D2S2</t>
-  </si>
-  <si>
-    <t>A3S2</t>
-  </si>
-  <si>
-    <t>B3S2</t>
-  </si>
-  <si>
-    <t>C3S2</t>
-  </si>
-  <si>
-    <t>D3S2</t>
+    <t>FB3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>MCQ</t>
+  </si>
+  <si>
+    <t>A, B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -138,8 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,55 +496,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0991300-BCA1-7041-8BA5-54C71412D86A}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="E7" sqref="E7:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -511,54 +625,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67D5B67-E990-6C4F-A921-E361C936A354}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
